--- a/files/Far away from Macro.xlsx
+++ b/files/Far away from Macro.xlsx
@@ -5,69 +5,71 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krosha\Oleg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krosha\Documents\GitHub\olegtelegin.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19056" windowHeight="6372"/>
   </bookViews>
   <sheets>
-    <sheet name="04.03-10.03" sheetId="49" r:id="rId1"/>
-    <sheet name="11.03-17.03" sheetId="50" r:id="rId2"/>
-    <sheet name="25.12-31.12" sheetId="48" r:id="rId3"/>
-    <sheet name="18.12-24.12" sheetId="47" r:id="rId4"/>
-    <sheet name="04.12-10.12" sheetId="46" r:id="rId5"/>
-    <sheet name="27.11-03.12" sheetId="45" r:id="rId6"/>
-    <sheet name="20.11-26.11" sheetId="44" r:id="rId7"/>
-    <sheet name="16.10-22.10" sheetId="43" r:id="rId8"/>
-    <sheet name="09.10-15.10" sheetId="42" r:id="rId9"/>
-    <sheet name="25.09-01.10" sheetId="41" r:id="rId10"/>
-    <sheet name="18.09-24.09" sheetId="40" r:id="rId11"/>
-    <sheet name="11.09-17.09" sheetId="39" r:id="rId12"/>
-    <sheet name="04.09-10.09" sheetId="38" r:id="rId13"/>
-    <sheet name="28.08-03.09" sheetId="37" r:id="rId14"/>
-    <sheet name="21.08-27.08" sheetId="36" r:id="rId15"/>
-    <sheet name="14.08-20.08" sheetId="35" r:id="rId16"/>
-    <sheet name="03.07-09.07" sheetId="33" r:id="rId17"/>
-    <sheet name="10.07-16.07" sheetId="34" r:id="rId18"/>
-    <sheet name="19.06-25.06" sheetId="31" r:id="rId19"/>
-    <sheet name="26.06-02.07" sheetId="32" r:id="rId20"/>
-    <sheet name="05.06-11.06" sheetId="30" r:id="rId21"/>
-    <sheet name="29.05-04.06" sheetId="29" r:id="rId22"/>
-    <sheet name="22.05-28.05" sheetId="28" r:id="rId23"/>
-    <sheet name="15.05-21.05" sheetId="27" r:id="rId24"/>
-    <sheet name="08.05-14.05" sheetId="26" r:id="rId25"/>
-    <sheet name="01.05-07.05" sheetId="25" r:id="rId26"/>
-    <sheet name="24.04-30.04" sheetId="24" r:id="rId27"/>
-    <sheet name="17.04-23.04" sheetId="23" r:id="rId28"/>
-    <sheet name="10.04-16.04" sheetId="22" r:id="rId29"/>
-    <sheet name="03.04-09.04" sheetId="21" r:id="rId30"/>
-    <sheet name="27.03-02.04" sheetId="20" r:id="rId31"/>
-    <sheet name="20.03-26.03" sheetId="19" r:id="rId32"/>
-    <sheet name="13.03-19.03" sheetId="18" r:id="rId33"/>
-    <sheet name="06.03-12.03" sheetId="17" r:id="rId34"/>
-    <sheet name="27.02-05.03" sheetId="16" r:id="rId35"/>
-    <sheet name="20.02-26.02" sheetId="15" r:id="rId36"/>
-    <sheet name="13.02-19.02" sheetId="14" r:id="rId37"/>
-    <sheet name="06.02-12.02" sheetId="13" r:id="rId38"/>
-    <sheet name="30.01-05.02" sheetId="12" r:id="rId39"/>
-    <sheet name="23.01-29.01" sheetId="11" r:id="rId40"/>
-    <sheet name="16.01-22.01" sheetId="10" r:id="rId41"/>
-    <sheet name="09.01-15.01" sheetId="9" r:id="rId42"/>
-    <sheet name="02.01-08.01" sheetId="8" r:id="rId43"/>
-    <sheet name="26.12-01.01" sheetId="7" r:id="rId44"/>
-    <sheet name="19.12-25.12" sheetId="2" r:id="rId45"/>
-    <sheet name="12.12-18.12" sheetId="1" r:id="rId46"/>
-    <sheet name="05.12-11.12" sheetId="3" r:id="rId47"/>
-    <sheet name="28.11-04.12" sheetId="4" r:id="rId48"/>
-    <sheet name="21.11-27.11" sheetId="5" r:id="rId49"/>
+    <sheet name="08.07-14.07" sheetId="51" r:id="rId1"/>
+    <sheet name="15.07-21.07" sheetId="52" r:id="rId2"/>
+    <sheet name="11.03-17.03" sheetId="50" r:id="rId3"/>
+    <sheet name="04.03-10.03" sheetId="49" r:id="rId4"/>
+    <sheet name="25.12-31.12" sheetId="48" r:id="rId5"/>
+    <sheet name="18.12-24.12" sheetId="47" r:id="rId6"/>
+    <sheet name="04.12-10.12" sheetId="46" r:id="rId7"/>
+    <sheet name="27.11-03.12" sheetId="45" r:id="rId8"/>
+    <sheet name="20.11-26.11" sheetId="44" r:id="rId9"/>
+    <sheet name="16.10-22.10" sheetId="43" r:id="rId10"/>
+    <sheet name="09.10-15.10" sheetId="42" r:id="rId11"/>
+    <sheet name="25.09-01.10" sheetId="41" r:id="rId12"/>
+    <sheet name="18.09-24.09" sheetId="40" r:id="rId13"/>
+    <sheet name="11.09-17.09" sheetId="39" r:id="rId14"/>
+    <sheet name="04.09-10.09" sheetId="38" r:id="rId15"/>
+    <sheet name="28.08-03.09" sheetId="37" r:id="rId16"/>
+    <sheet name="21.08-27.08" sheetId="36" r:id="rId17"/>
+    <sheet name="14.08-20.08" sheetId="35" r:id="rId18"/>
+    <sheet name="03.07-09.07" sheetId="33" r:id="rId19"/>
+    <sheet name="10.07-16.07" sheetId="34" r:id="rId20"/>
+    <sheet name="19.06-25.06" sheetId="31" r:id="rId21"/>
+    <sheet name="26.06-02.07" sheetId="32" r:id="rId22"/>
+    <sheet name="05.06-11.06" sheetId="30" r:id="rId23"/>
+    <sheet name="29.05-04.06" sheetId="29" r:id="rId24"/>
+    <sheet name="22.05-28.05" sheetId="28" r:id="rId25"/>
+    <sheet name="15.05-21.05" sheetId="27" r:id="rId26"/>
+    <sheet name="08.05-14.05" sheetId="26" r:id="rId27"/>
+    <sheet name="01.05-07.05" sheetId="25" r:id="rId28"/>
+    <sheet name="24.04-30.04" sheetId="24" r:id="rId29"/>
+    <sheet name="17.04-23.04" sheetId="23" r:id="rId30"/>
+    <sheet name="10.04-16.04" sheetId="22" r:id="rId31"/>
+    <sheet name="03.04-09.04" sheetId="21" r:id="rId32"/>
+    <sheet name="27.03-02.04" sheetId="20" r:id="rId33"/>
+    <sheet name="20.03-26.03" sheetId="19" r:id="rId34"/>
+    <sheet name="13.03-19.03" sheetId="18" r:id="rId35"/>
+    <sheet name="06.03-12.03" sheetId="17" r:id="rId36"/>
+    <sheet name="27.02-05.03" sheetId="16" r:id="rId37"/>
+    <sheet name="20.02-26.02" sheetId="15" r:id="rId38"/>
+    <sheet name="13.02-19.02" sheetId="14" r:id="rId39"/>
+    <sheet name="06.02-12.02" sheetId="13" r:id="rId40"/>
+    <sheet name="30.01-05.02" sheetId="12" r:id="rId41"/>
+    <sheet name="23.01-29.01" sheetId="11" r:id="rId42"/>
+    <sheet name="16.01-22.01" sheetId="10" r:id="rId43"/>
+    <sheet name="09.01-15.01" sheetId="9" r:id="rId44"/>
+    <sheet name="02.01-08.01" sheetId="8" r:id="rId45"/>
+    <sheet name="26.12-01.01" sheetId="7" r:id="rId46"/>
+    <sheet name="19.12-25.12" sheetId="2" r:id="rId47"/>
+    <sheet name="12.12-18.12" sheetId="1" r:id="rId48"/>
+    <sheet name="05.12-11.12" sheetId="3" r:id="rId49"/>
+    <sheet name="28.11-04.12" sheetId="4" r:id="rId50"/>
+    <sheet name="21.11-27.11" sheetId="5" r:id="rId51"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="824">
   <si>
     <t>- If the event requires registration, there will be a link to the registration page; otherwise, a link to the event itself.</t>
   </si>
@@ -2714,6 +2716,15 @@
   </si>
   <si>
     <t>Connecting Academics to Policy: A Conversation with New York Fed President John C. Williams</t>
+  </si>
+  <si>
+    <t>https://www.vimacro.org/leonardo-damico-construction-productivity-role-land-use-regulation</t>
+  </si>
+  <si>
+    <t>09.07</t>
+  </si>
+  <si>
+    <t>Leonardo D’Amico - Why has construction productivity stagnated? The role of land-use regulation</t>
   </si>
 </sst>
 </file>
@@ -2876,7 +2887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3045,6 +3056,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3277,10 +3291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3293,7 +3307,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>369</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>8</v>
@@ -3307,177 +3321,456 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="B2" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>823</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>736</v>
+      </c>
+      <c r="B2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E2" t="s">
+        <v>738</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="B3" s="73" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C3" t="s">
         <v>302</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>810</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>811</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
-        <v>803</v>
-      </c>
-      <c r="B3" s="66" t="s">
+      <c r="D3" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" t="s">
+        <v>748</v>
+      </c>
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C4" t="s">
         <v>134</v>
       </c>
-      <c r="D3" t="s">
-        <v>808</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>819</v>
-      </c>
-      <c r="F3" s="79" t="s">
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" t="s">
+        <v>732</v>
+      </c>
+      <c r="F4" s="72" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>803</v>
-      </c>
-      <c r="B4" s="66" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="B5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" t="s">
+        <v>734</v>
+      </c>
+      <c r="E5" t="s">
+        <v>735</v>
+      </c>
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="B6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="E6" t="s">
+        <v>440</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>756</v>
+      </c>
+      <c r="B7" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C7" t="s">
         <v>757</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>812</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>813</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
-        <v>803</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>393</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" t="s">
-        <v>804</v>
-      </c>
-      <c r="E5" s="66" t="s">
+      <c r="D7" s="31" t="s">
+        <v>758</v>
+      </c>
+      <c r="E7" t="s">
         <v>440</v>
       </c>
-      <c r="F5" s="79" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
-        <v>806</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>420</v>
-      </c>
-      <c r="D6" t="s">
-        <v>809</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>820</v>
-      </c>
-      <c r="F6" s="66" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
-        <v>807</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>757</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>814</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>815</v>
-      </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
-        <v>807</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>264</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>817</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>816</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
-        <v>807</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="66" t="s">
+      <c r="A8" s="24" t="s">
+        <v>755</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>818</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>153</v>
+      <c r="D8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
-    <hyperlink ref="D9" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId1" location="/registration"/>
+    <hyperlink ref="D8" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>724</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" t="s">
+        <v>748</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>724</v>
+      </c>
+      <c r="B3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>726</v>
+      </c>
+      <c r="E3" t="s">
+        <v>727</v>
+      </c>
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>724</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" t="s">
+        <v>749</v>
+      </c>
+      <c r="F4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>724</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>742</v>
+      </c>
+      <c r="E5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>730</v>
+      </c>
+      <c r="B6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="E6" t="s">
+        <v>728</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>751</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>752</v>
+      </c>
+      <c r="E7" t="s">
+        <v>753</v>
+      </c>
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>739</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>747</v>
+      </c>
+      <c r="E8" t="s">
+        <v>746</v>
+      </c>
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>739</v>
+      </c>
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" t="s">
+        <v>750</v>
+      </c>
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>739</v>
+      </c>
+      <c r="B10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" t="s">
+        <v>740</v>
+      </c>
+      <c r="E10" t="s">
+        <v>741</v>
+      </c>
+      <c r="F10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>754</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D11" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D8" r:id="rId4"/>
+    <hyperlink ref="D2" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="D7" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3556,7 +3849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -3698,7 +3991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -3798,7 +4091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -3898,7 +4191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3974,7 +4267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -4092,7 +4385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -4195,7 +4488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -4332,7 +4625,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -4547,7 +4875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -4725,82 +5053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>805</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>393</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" t="s">
-        <v>804</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>440</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
-        <v>321</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>438</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" t="s">
-        <v>721</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>440</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -4918,7 +5171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4997,7 +5250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -5116,7 +5369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -5276,7 +5529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -5478,7 +5731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -5678,7 +5931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -5954,7 +6207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -6205,7 +6458,82 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>805</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>804</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>440</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>721</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>440</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -6443,7 +6771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -6641,65 +6969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>797</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>802</v>
-      </c>
-      <c r="F2" s="78" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -6837,7 +7107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -7016,7 +7286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -7182,7 +7452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -7347,7 +7617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -7473,7 +7743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -7740,7 +8010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -7929,7 +8199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -8124,7 +8394,209 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>803</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>811</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>803</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>808</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>819</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>803</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>757</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>813</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
+        <v>803</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
+        <v>804</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" s="79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
+        <v>806</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>420</v>
+      </c>
+      <c r="D6" t="s">
+        <v>809</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>820</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="77" t="s">
+        <v>807</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>757</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>815</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
+        <v>807</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>816</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="77" t="s">
+        <v>807</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>818</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D8" r:id="rId4"/>
+    <hyperlink ref="D9" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -8324,7 +8796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -8465,107 +8937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="E2" t="s">
-        <v>799</v>
-      </c>
-      <c r="F2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" t="s">
-        <v>688</v>
-      </c>
-      <c r="C3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>783</v>
-      </c>
-      <c r="E3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>798</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>801</v>
-      </c>
-      <c r="F4" s="78" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -8734,7 +9106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -8894,7 +9266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -9123,7 +9495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -9259,7 +9631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -9326,7 +9698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9432,7 +9804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9452,22 +9824,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -9477,13 +9849,13 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -9493,13 +9865,13 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -9509,13 +9881,13 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -9525,13 +9897,13 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -9683,7 +10055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9703,67 +10075,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
     </row>
     <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -9927,7 +10299,65 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>797</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>802</v>
+      </c>
+      <c r="F2" s="78" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9945,68 +10375,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
     </row>
     <row r="9" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -10304,7 +10734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10323,68 +10753,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
     </row>
     <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -13592,7 +14022,107 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="E2" t="s">
+        <v>799</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>783</v>
+      </c>
+      <c r="E3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>798</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>801</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -13650,7 +14180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -13855,7 +14385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -14038,430 +14568,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>736</v>
-      </c>
-      <c r="B2" t="s">
-        <v>737</v>
-      </c>
-      <c r="C2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E2" t="s">
-        <v>738</v>
-      </c>
-      <c r="F2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>731</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="E3" t="s">
-        <v>748</v>
-      </c>
-      <c r="F3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>731</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" t="s">
-        <v>732</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>731</v>
-      </c>
-      <c r="B5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D5" t="s">
-        <v>734</v>
-      </c>
-      <c r="E5" t="s">
-        <v>735</v>
-      </c>
-      <c r="F5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="B6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="E6" t="s">
-        <v>440</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>756</v>
-      </c>
-      <c r="B7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" t="s">
-        <v>757</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>758</v>
-      </c>
-      <c r="E7" t="s">
-        <v>440</v>
-      </c>
-      <c r="F7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>755</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F8" s="72" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" location="/registration"/>
-    <hyperlink ref="D8" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D7" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>724</v>
-      </c>
-      <c r="B2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="E2" t="s">
-        <v>748</v>
-      </c>
-      <c r="F2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>724</v>
-      </c>
-      <c r="B3" t="s">
-        <v>725</v>
-      </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" t="s">
-        <v>726</v>
-      </c>
-      <c r="E3" t="s">
-        <v>727</v>
-      </c>
-      <c r="F3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>724</v>
-      </c>
-      <c r="B4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="E4" t="s">
-        <v>749</v>
-      </c>
-      <c r="F4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>724</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>742</v>
-      </c>
-      <c r="E5" t="s">
-        <v>744</v>
-      </c>
-      <c r="F5" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>730</v>
-      </c>
-      <c r="B6" t="s">
-        <v>729</v>
-      </c>
-      <c r="C6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>703</v>
-      </c>
-      <c r="E6" t="s">
-        <v>728</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>745</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>751</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>752</v>
-      </c>
-      <c r="E7" t="s">
-        <v>753</v>
-      </c>
-      <c r="F7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>739</v>
-      </c>
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" t="s">
-        <v>423</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>747</v>
-      </c>
-      <c r="E8" t="s">
-        <v>746</v>
-      </c>
-      <c r="F8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>739</v>
-      </c>
-      <c r="B9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" t="s">
-        <v>750</v>
-      </c>
-      <c r="F9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>739</v>
-      </c>
-      <c r="B10" t="s">
-        <v>449</v>
-      </c>
-      <c r="C10" t="s">
-        <v>318</v>
-      </c>
-      <c r="D10" t="s">
-        <v>740</v>
-      </c>
-      <c r="E10" t="s">
-        <v>741</v>
-      </c>
-      <c r="F10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>754</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F11" s="72" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
-    <hyperlink ref="D11" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
-    <hyperlink ref="D2" r:id="rId5"/>
-    <hyperlink ref="D4" r:id="rId6"/>
-    <hyperlink ref="D9" r:id="rId7"/>
-    <hyperlink ref="D7" r:id="rId8"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>